--- a/Labs/DAT215_1/Setup/Normalize to 3NF.xlsx
+++ b/Labs/DAT215_1/Setup/Normalize to 3NF.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labfiles\Lab03\Starter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoff\OneDrive\SQL2016Online\GitHubLabs\DAT215_1\Setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>OrderID</t>
   </si>
@@ -117,7 +117,87 @@
     <t>Scroll across to view the full data set if necessary.</t>
   </si>
   <si>
-    <t>Age column removed as it was transitively dependent on the primary key through the Date of Birth column</t>
+    <t>Age column removed as it was transitively dependent on the primary key through the Data of Birth column</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Orders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> table</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Products</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> table</t>
+    </r>
+  </si>
+  <si>
+    <t>ProductID</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>CB-2903</t>
+  </si>
+  <si>
+    <t>BA-3827</t>
+  </si>
+  <si>
+    <t>BA-2349</t>
+  </si>
+  <si>
+    <t>BA-2903</t>
+  </si>
+  <si>
+    <r>
+      <t>OrderProducts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> table</t>
+    </r>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>BA-2908</t>
+  </si>
+  <si>
+    <t>BE-2349</t>
   </si>
 </sst>
 </file>
@@ -170,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -178,6 +258,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -271,6 +352,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -306,6 +404,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -461,7 +576,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +718,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,79 +737,22 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>101</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5">
-        <v>25895</v>
-      </c>
-      <c r="E4">
-        <v>46</v>
-      </c>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>163</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5">
-        <v>30148</v>
-      </c>
-      <c r="E5">
-        <v>34</v>
-      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>302</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5">
-        <v>34423</v>
-      </c>
-      <c r="E6">
-        <v>22</v>
-      </c>
+      <c r="D6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -704,10 +762,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D9"/>
+  <dimension ref="A2:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,12 +781,12 @@
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -742,7 +800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>101</v>
       </c>
@@ -756,7 +814,7 @@
         <v>25895</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>163</v>
       </c>
@@ -770,7 +828,7 @@
         <v>30148</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>302</v>
       </c>
@@ -784,12 +842,178 @@
         <v>34423</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>42371</v>
+      </c>
+      <c r="C14">
+        <v>101</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="7">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>42371</v>
+      </c>
+      <c r="C15">
+        <v>163</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3">
+        <v>42372</v>
+      </c>
+      <c r="C16">
+        <v>302</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="7">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Labs/DAT215_1/Setup/Normalize to 3NF.xlsx
+++ b/Labs/DAT215_1/Setup/Normalize to 3NF.xlsx
@@ -26,13 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
-  <si>
-    <t>OrderID</t>
-  </si>
-  <si>
-    <t>OrderDate</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
   <si>
     <t>CustomerID</t>
   </si>
@@ -59,30 +53,6 @@
   </si>
   <si>
     <t>9539 Glenside Drive</t>
-  </si>
-  <si>
-    <t>Product 1</t>
-  </si>
-  <si>
-    <t>Product 2</t>
-  </si>
-  <si>
-    <t>Product 3</t>
-  </si>
-  <si>
-    <t>CB-2903 (1 x 12.99)</t>
-  </si>
-  <si>
-    <t>BA-8327 (2 x 1.50)</t>
-  </si>
-  <si>
-    <t>BA-8327 (1 x 1.50)</t>
-  </si>
-  <si>
-    <t>BE-2349 (1  x 5.99)</t>
-  </si>
-  <si>
-    <t>BE-2908 (1 x 10.00)</t>
   </si>
   <si>
     <t>Date of Birth</t>
@@ -114,10 +84,16 @@
     </r>
   </si>
   <si>
-    <t>Scroll across to view the full data set if necessary.</t>
-  </si>
-  <si>
     <t>Age column removed as it was transitively dependent on the primary key through the Data of Birth column</t>
+  </si>
+  <si>
+    <t>CB-2903</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>BE-2349</t>
   </si>
   <si>
     <r>
@@ -139,12 +115,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> table</t>
+      <t xml:space="preserve"> Table</t>
     </r>
   </si>
   <si>
+    <t>OrderID (Key)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrderDate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer </t>
+  </si>
+  <si>
     <r>
-      <t>Products</t>
+      <t xml:space="preserve">OrderDetails </t>
     </r>
     <r>
       <rPr>
@@ -154,30 +139,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> table</t>
+      <t>table</t>
     </r>
   </si>
   <si>
-    <t>ProductID</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>CB-2903</t>
-  </si>
-  <si>
-    <t>BA-3827</t>
-  </si>
-  <si>
-    <t>BA-2349</t>
-  </si>
-  <si>
-    <t>BA-2903</t>
+    <t>Product (Key)</t>
+  </si>
+  <si>
+    <t>BA-8327</t>
+  </si>
+  <si>
+    <t>BE-2908</t>
   </si>
   <si>
     <r>
-      <t>OrderProducts</t>
+      <t xml:space="preserve">Product </t>
     </r>
     <r>
       <rPr>
@@ -187,17 +163,40 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> table</t>
+      <t>table</t>
     </r>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>BA-2908</t>
-  </si>
-  <si>
-    <t>BE-2349</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Table</t>
+    </r>
+  </si>
+  <si>
+    <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CustomerID </t>
   </si>
 </sst>
 </file>
@@ -250,15 +249,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,16 +571,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="8" width="21.42578125" customWidth="1"/>
     <col min="9" max="9" width="28.140625" customWidth="1"/>
@@ -593,119 +591,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B1"/>
+      <c r="I1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>42371</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5">
-        <v>25895</v>
-      </c>
-      <c r="F2">
-        <v>46</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>42371</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5">
-        <v>30148</v>
-      </c>
-      <c r="F3">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>42371</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4">
+        <v>25895</v>
+      </c>
+      <c r="F4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>42371</v>
+      </c>
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4">
+        <v>30148</v>
+      </c>
+      <c r="F5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
         <v>42372</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4">
+        <v>34423</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>12.99</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>3545435413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1.5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>36465465436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>5.99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>34643434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
         <v>10</v>
       </c>
-      <c r="E4" s="5">
-        <v>34423</v>
-      </c>
-      <c r="F4">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>34134213242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>35432434</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -738,21 +885,21 @@
       <c r="H1" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="H3" s="6"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="5"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="5"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="5"/>
+      <c r="D6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -762,11 +909,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F26"/>
+  <dimension ref="A2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -781,240 +926,300 @@
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>42371</v>
+      </c>
+      <c r="C4">
+        <v>101</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>42371</v>
+      </c>
+      <c r="C5">
+        <v>163</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>42372</v>
+      </c>
+      <c r="C6">
+        <v>302</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>101</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="4">
+        <v>25895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>163</v>
+      </c>
+      <c r="F12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="G12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="H12" s="4">
+        <v>30148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>302</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="4">
+        <v>34423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>12.99</v>
+      </c>
+      <c r="D22">
         <v>101</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5">
-        <v>25895</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="E22">
+        <v>3545435413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1.5</v>
+      </c>
+      <c r="D23">
+        <v>101</v>
+      </c>
+      <c r="E23">
+        <v>36465465436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>5.99</v>
+      </c>
+      <c r="D24">
         <v>163</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5">
-        <v>30148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="E24">
+        <v>34643434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>163</v>
+      </c>
+      <c r="E25">
+        <v>34134213242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="D26">
         <v>302</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5">
-        <v>34423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3">
-        <v>42371</v>
-      </c>
-      <c r="C14">
-        <v>101</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="7">
-        <v>12.99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" s="3">
-        <v>42371</v>
-      </c>
-      <c r="C15">
-        <v>163</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="7">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3">
-        <v>42372</v>
-      </c>
-      <c r="C16">
-        <v>302</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="7">
-        <v>5.99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
+      <c r="E26">
+        <v>35432434</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
